--- a/Game Zone_Issue Log.xlsx
+++ b/Game Zone_Issue Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Profession\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC13D389-2463-40ED-A6BD-6CC2ED133AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAADE67-899C-4886-B119-58B2EE059072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{36DCD3EA-4232-4759-BA92-EE2C82BDBFD9}"/>
+    <workbookView xWindow="2250" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{36DCD3EA-4232-4759-BA92-EE2C82BDBFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="issue_log" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>0 and blank transactions</t>
   </si>
   <si>
-    <t>left as it - no way to infer, would need to check with stakeholders</t>
-  </si>
-  <si>
     <t>marketing_channel</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>left as is - would need to flag if doing further analysis on ship date</t>
+  </si>
+  <si>
+    <t>deleted - no way to infer, would need to check with stakeholders</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B454A21-2C4F-4FA7-BF85-FCA2362F4DF2}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D6">
         <v>83</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>83</v>
@@ -728,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,10 +736,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>37</v>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -759,10 +759,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D9">
         <v>145</v>
@@ -774,18 +774,18 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,10 +805,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D11">
         <v>2004</v>
@@ -820,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
